--- a/public/sample_uploads/investor_kycs_update.xlsx
+++ b/public/sample_uploads/investor_kycs_update.xlsx
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t xml:space="preserve">Stakeholder</t>
   </si>
@@ -622,6 +622,9 @@
     <t xml:space="preserve">Sebi Investor Sub Category</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Custom Field 1</t>
   </si>
   <si>
@@ -665,6 +668,9 @@
   </si>
   <si>
     <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -884,27 +890,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,16 +1164,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.5"/>
@@ -1176,17 +1182,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="11.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="11.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="11.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,255 +1265,270 @@
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>27478</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>50100000000</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="6" t="n">
         <v>1000000</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>36</v>
+      <c r="X2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>15772</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>50100000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>2000000</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>45</v>
+      <c r="X3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>33529</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>50100000002</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>3000000</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>55</v>
+      <c r="X4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>36676</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>50100000003</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>4000000</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>62</v>
+      <c r="X5" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
